--- a/mes-modules/produce/src/main/resources/excel/disqualificationTemplate.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/disqualificationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12350"/>
+    <workbookView windowWidth="25600" windowHeight="10550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>                                不合格品处理单查询结果</t>
   </si>
@@ -109,7 +109,7 @@
     <t>scrap_loss</t>
   </si>
   <si>
-    <t>无该日期字段，需增加字段</t>
+    <t>close_time</t>
   </si>
   <si>
     <t>treatment_one_name</t>
@@ -225,19 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,22 +263,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,45 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,22 +339,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +393,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,19 +434,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,31 +488,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,127 +554,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,11 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,23 +672,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,23 +696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,17 +717,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -901,22 +894,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,7 +1234,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1249,7 +1242,7 @@
     <col min="1" max="1" width="36.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56" spans="1:32">
+    <row r="1" spans="1:32">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1401,7 +1394,9 @@
       <c r="AA3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="4"/>
+      <c r="AB3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AC3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="70" spans="1:32">
+    <row r="4" ht="56" spans="1:32">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>

--- a/mes-modules/produce/src/main/resources/excel/disqualificationTemplate.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/disqualificationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10550"/>
+    <workbookView windowWidth="23310" windowHeight="9380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>                                不合格品处理单查询结果</t>
   </si>
@@ -38,6 +38,12 @@
 process_sheet_no</t>
   </si>
   <si>
+    <t>track_no</t>
+  </si>
+  <si>
+    <t>disqualification_type</t>
+  </si>
+  <si>
     <t>discover_branch</t>
   </si>
   <si>
@@ -64,9 +70,15 @@
     <t>product_no</t>
   </si>
   <si>
+    <t>track_head_type</t>
+  </si>
+  <si>
     <t>part_materials</t>
   </si>
   <si>
+    <t>heat_number</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -76,15 +88,21 @@
     <t>disqualification_condition</t>
   </si>
   <si>
+    <t>quality_control_opinion</t>
+  </si>
+  <si>
+    <t>unit_treatment_one_opinion</t>
+  </si>
+  <si>
+    <t>unit_treatment_two_opinion</t>
+  </si>
+  <si>
+    <t>responsibility_opinion</t>
+  </si>
+  <si>
     <t>quality_name</t>
   </si>
   <si>
-    <t>unit_treatment_one_opinion</t>
-  </si>
-  <si>
-    <t>unit_treatment_two_opinion</t>
-  </si>
-  <si>
     <t>discover_item</t>
   </si>
   <si>
@@ -136,6 +154,12 @@
     <t>处理单号</t>
   </si>
   <si>
+    <t>跟单编号</t>
+  </si>
+  <si>
+    <t>不合格情况类型</t>
+  </si>
+  <si>
     <t>发现单位</t>
   </si>
   <si>
@@ -160,9 +184,15 @@
     <t>零部件编号</t>
   </si>
   <si>
+    <t>跟踪类型</t>
+  </si>
+  <si>
     <t>零件材料</t>
   </si>
   <si>
+    <t>炉号（批号）</t>
+  </si>
+  <si>
     <t>数量</t>
   </si>
   <si>
@@ -170,6 +200,18 @@
   </si>
   <si>
     <t>问题描述</t>
+  </si>
+  <si>
+    <t>质控工程师评审意见</t>
+  </si>
+  <si>
+    <t>处理单位1的意见</t>
+  </si>
+  <si>
+    <t>处理单位2的意见</t>
+  </si>
+  <si>
+    <t>裁决意见</t>
   </si>
   <si>
     <t>质控工程师</t>
@@ -226,11 +268,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +305,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -280,28 +351,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,15 +365,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,70 +441,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +477,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF97D0FB"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,25 +567,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,151 +645,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,11 +709,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +721,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,41 +779,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,19 +809,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,116 +830,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +960,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1231,15 +1286,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="36.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="16.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1312,7 +1368,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" ht="65" spans="1:32">
+    <row r="3" ht="65" spans="1:40">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1326,19 +1382,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>2</v>
@@ -1356,16 +1412,16 @@
         <v>2</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>1</v>
@@ -1395,22 +1451,46 @@
         <v>1</v>
       </c>
       <c r="AB3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="56" spans="1:32">
+    <row r="4" ht="56" spans="1:40">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1487,123 +1567,171 @@
         <v>27</v>
       </c>
       <c r="Z4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="AI4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:40">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/mes-modules/produce/src/main/resources/excel/disqualificationTemplate.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/disqualificationTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23310" windowHeight="9380"/>
+    <workbookView windowWidth="25600" windowHeight="10550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>                                不合格品处理单查询结果</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>creat_by</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>order_time</t>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>申请者</t>
+  </si>
+  <si>
+    <t>处理状态</t>
   </si>
   <si>
     <t>申请日期</t>
@@ -267,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -313,44 +319,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,15 +341,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,30 +372,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +401,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -427,30 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,37 +489,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,13 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,90 +657,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -639,31 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +698,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -707,11 +722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,7 +741,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,17 +761,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,26 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,21 +1292,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="36.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="16.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="9.27272727272727" customWidth="1"/>
+    <col min="7" max="7" width="16.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1331,8 +1338,9 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
     </row>
-    <row r="2" ht="31" spans="1:32">
+    <row r="2" ht="31" spans="1:33">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1365,21 +1373,22 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="3"/>
       <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" ht="65" spans="1:40">
+    <row r="3" ht="65" spans="1:41">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -1388,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>1</v>
@@ -1397,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>2</v>
@@ -1424,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>1</v>
@@ -1475,11 +1484,11 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="AL3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1489,8 +1498,11 @@
       <c r="AN3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="AO3" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" ht="56" spans="1:40">
+    <row r="4" ht="56" spans="1:41">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1567,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>29</v>
@@ -1611,132 +1623,138 @@
       <c r="AN4" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="AO4" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="R5" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="S5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="U5" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="V5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="Y5" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="Z5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A2:AE2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
